--- a/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
+++ b/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="264">
   <si>
     <t>표 1</t>
   </si>
@@ -425,10 +425,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>답변</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>답변일자</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1516,6 +1512,30 @@
   </si>
   <si>
     <t>favor_r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1번/2:2번</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3616,10 +3636,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -3664,7 +3684,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -3676,7 +3696,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>28</v>
@@ -3690,10 +3710,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -3706,16 +3726,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="16">
         <v>11</v>
@@ -3723,32 +3743,32 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -3757,7 +3777,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5">
         <v>255</v>
@@ -3765,12 +3785,12 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
@@ -3841,10 +3861,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -3889,28 +3909,28 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="16">
         <v>45</v>
@@ -3923,16 +3943,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5"/>
@@ -3943,13 +3963,13 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>29</v>
@@ -3963,7 +3983,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -3972,7 +3992,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3981,7 +4001,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
@@ -4016,7 +4036,7 @@
   </sheetPr>
   <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -4053,10 +4073,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4101,10 +4121,10 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="16">
         <v>11</v>
@@ -4119,16 +4139,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4141,16 +4161,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -4160,17 +4180,17 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="16">
         <v>11</v>
@@ -4183,16 +4203,16 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -4202,17 +4222,17 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -4222,19 +4242,19 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.45" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4243,7 +4263,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.45" customHeight="1"/>
@@ -4304,10 +4324,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4352,32 +4372,32 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="16">
         <v>11</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4388,16 +4408,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4406,16 +4426,16 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4424,7 +4444,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -4508,10 +4528,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>241</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4556,32 +4576,32 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="16">
         <v>11</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4592,16 +4612,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4610,16 +4630,16 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>246</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4628,16 +4648,16 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4646,16 +4666,16 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4664,7 +4684,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4687,12 +4707,12 @@
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4728,10 +4748,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4774,7 +4794,7 @@
     <row r="4" spans="1:12" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>32</v>
@@ -4792,13 +4812,13 @@
     <row r="5" spans="1:12" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4812,13 +4832,13 @@
     <row r="6" spans="1:12" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="25" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -4832,13 +4852,13 @@
     <row r="7" spans="1:12" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="25" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -4852,13 +4872,13 @@
     <row r="8" spans="1:12" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4875,13 +4895,13 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="G9" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4895,13 +4915,13 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -4915,13 +4935,13 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -4935,13 +4955,13 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -4955,13 +4975,13 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -5025,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>34</v>
@@ -5073,7 +5093,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>27</v>
@@ -5135,10 +5155,10 @@
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="41">
         <v>11</v>
@@ -5149,7 +5169,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
       <c r="J7" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -5158,7 +5178,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="72">
         <v>45</v>
@@ -5178,7 +5198,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="41">
         <v>11</v>
@@ -5198,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="41">
         <v>11</v>
@@ -5218,7 +5238,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="41">
         <v>45</v>
@@ -5238,7 +5258,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="41">
         <v>45</v>
@@ -5258,7 +5278,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="41">
         <v>45</v>
@@ -5278,7 +5298,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="41">
         <v>11</v>
@@ -5295,10 +5315,10 @@
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="41">
         <v>11</v>
@@ -5318,7 +5338,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="41">
         <v>45</v>
@@ -5338,7 +5358,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="41">
         <v>45</v>
@@ -5355,10 +5375,10 @@
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="33"/>
       <c r="B18" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="41">
         <v>11</v>
@@ -5378,7 +5398,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="41">
         <v>11</v>
@@ -5389,38 +5409,38 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
       <c r="J19" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="33"/>
       <c r="B20" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="63" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>129</v>
       </c>
       <c r="D20" s="41">
         <v>11</v>
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="64"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="33"/>
       <c r="B21" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="71"/>
@@ -5429,16 +5449,16 @@
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="33"/>
       <c r="B22" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>114</v>
       </c>
       <c r="D22" s="41">
         <v>45</v>
@@ -5449,16 +5469,16 @@
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="41">
         <v>11</v>
@@ -5469,16 +5489,16 @@
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
       <c r="J23" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="33"/>
       <c r="B24" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>188</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>189</v>
       </c>
       <c r="D24" s="41">
         <v>11</v>
@@ -5489,7 +5509,7 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5549,10 +5569,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -5573,13 +5593,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>22</v>
@@ -5597,13 +5617,13 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>28</v>
@@ -5613,16 +5633,16 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="66">
         <v>11</v>
@@ -5633,16 +5653,16 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="66">
         <v>11</v>
@@ -5653,16 +5673,16 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
@@ -5671,7 +5691,7 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -6005,10 +6025,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6053,34 +6073,34 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="16">
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="16">
         <v>45</v>
@@ -6091,16 +6111,16 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="16">
         <v>45</v>
@@ -6111,16 +6131,16 @@
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="D7" s="16">
         <v>45</v>
@@ -6131,16 +6151,16 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="37">
         <v>20</v>
@@ -6151,16 +6171,16 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="49"/>
       <c r="B9" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="52">
         <v>20</v>
@@ -6171,7 +6191,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -6534,7 +6554,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6555,7 +6575,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6579,13 +6599,13 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>28</v>
@@ -6595,19 +6615,19 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
@@ -6615,16 +6635,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="74">
         <v>45</v>
@@ -6635,7 +6655,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -6644,7 +6664,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="29">
         <v>45</v>
@@ -6655,7 +6675,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6715,10 +6735,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6739,7 +6759,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6763,32 +6783,32 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
@@ -6799,7 +6819,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6858,10 +6878,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>223</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6882,10 +6902,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="69" t="s">
         <v>231</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>232</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>22</v>
@@ -6906,34 +6926,34 @@
     <row r="4" spans="1:10" s="18" customFormat="1" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="24">
         <v>11</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -6944,16 +6964,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -6964,7 +6984,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +7090,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -7092,10 +7112,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="16">
         <v>255</v>
@@ -7106,13 +7126,13 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -7126,16 +7146,16 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="36">
         <v>45</v>
@@ -7146,16 +7166,16 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="41">
         <v>45</v>
@@ -7166,16 +7186,16 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -7184,7 +7204,7 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.45" customHeight="1">
@@ -7223,7 +7243,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7254,10 +7274,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>139</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -7302,7 +7322,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -7320,16 +7340,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -7339,7 +7359,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="24"/>
+      <c r="J5" s="24" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
@@ -7347,10 +7369,10 @@
         <v>65</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="D6" s="16">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -7358,7 +7380,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -7367,7 +7389,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7376,7 +7398,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1"/>

--- a/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
+++ b/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="263">
   <si>
     <t>표 1</t>
   </si>
@@ -1020,15 +1020,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>from</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>관계 정보 테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>to</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1532,6 +1524,10 @@
   </si>
   <si>
     <t>sender</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3713,7 +3709,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -3735,7 +3731,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" s="16">
         <v>11</v>
@@ -3757,7 +3753,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5"/>
@@ -3952,7 +3948,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5"/>
@@ -3992,7 +3988,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4076,7 +4072,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4145,10 +4141,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4167,10 +4163,10 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -4180,17 +4176,17 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="16">
         <v>11</v>
@@ -4209,10 +4205,10 @@
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -4222,7 +4218,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -4232,7 +4228,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -4254,7 +4250,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4394,10 +4390,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4417,7 +4413,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4435,7 +4431,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4528,10 +4524,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4576,7 +4572,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>87</v>
@@ -4598,7 +4594,7 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>87</v>
@@ -4618,10 +4614,10 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4630,16 +4626,16 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4648,16 +4644,16 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4666,16 +4662,16 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4684,7 +4680,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4703,7 @@
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -4794,7 +4790,7 @@
     <row r="4" spans="1:12" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>32</v>
@@ -4815,7 +4811,7 @@
         <v>143</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>156</v>
@@ -4832,10 +4828,10 @@
     <row r="6" spans="1:12" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>165</v>
@@ -4852,10 +4848,10 @@
     <row r="7" spans="1:12" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>165</v>
@@ -4975,10 +4971,10 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>151</v>
@@ -5218,7 +5214,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="41">
         <v>11</v>
@@ -5315,10 +5311,10 @@
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" s="41">
         <v>11</v>
@@ -5375,7 +5371,7 @@
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="33"/>
       <c r="B18" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>85</v>
@@ -5440,7 +5436,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="71"/>
@@ -5475,10 +5471,10 @@
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>186</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>188</v>
       </c>
       <c r="D23" s="41">
         <v>11</v>
@@ -5489,16 +5485,16 @@
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
       <c r="J23" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="33"/>
       <c r="B24" s="42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D24" s="41">
         <v>11</v>
@@ -5509,7 +5505,7 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5532,11 +5528,11 @@
   </sheetPr>
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5569,10 +5565,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -5593,13 +5589,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>22</v>
@@ -5617,13 +5613,13 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>28</v>
@@ -5633,16 +5629,16 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="42" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="66">
         <v>11</v>
@@ -5653,16 +5649,16 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>172</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>174</v>
       </c>
       <c r="D6" s="66">
         <v>11</v>
@@ -5673,16 +5669,16 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
@@ -5691,7 +5687,7 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -6028,7 +6024,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6097,7 +6093,7 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>116</v>
@@ -6157,7 +6153,7 @@
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>123</v>
@@ -6171,13 +6167,13 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="49"/>
       <c r="B9" s="51" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>123</v>
@@ -6191,7 +6187,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -6554,7 +6550,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6575,7 +6571,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6602,10 +6598,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>28</v>
@@ -6615,7 +6611,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
@@ -6624,10 +6620,10 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
@@ -6635,16 +6631,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>207</v>
       </c>
       <c r="D6" s="74">
         <v>45</v>
@@ -6655,7 +6651,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -6735,10 +6731,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6759,7 +6755,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6789,23 +6785,23 @@
         <v>87</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>84</v>
@@ -6819,7 +6815,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6878,10 +6874,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6902,10 +6898,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>22</v>
@@ -6944,16 +6940,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -6964,16 +6960,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -6984,7 +6980,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7112,7 +7108,7 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>131</v>
@@ -7132,7 +7128,7 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -7346,10 +7342,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -7360,7 +7356,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
@@ -7369,7 +7365,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -7380,7 +7376,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -7389,7 +7385,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>

--- a/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
+++ b/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="266">
   <si>
     <t>표 1</t>
   </si>
@@ -1532,6 +1532,18 @@
   </si>
   <si>
     <t>receiver</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>성향정보</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5526,13 +5538,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV32"/>
+  <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5674,46 +5686,55 @@
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="33"/>
-      <c r="B7" s="42" t="s">
-        <v>171</v>
+      <c r="B7" s="63" t="s">
+        <v>263</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="66"/>
+        <v>264</v>
+      </c>
+      <c r="D7" s="66">
+        <v>45</v>
+      </c>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="63" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.45" customHeight="1">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="44"/>
-    </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.45" customHeight="1">
+      <c r="B10" s="47"/>
       <c r="C10" s="48"/>
       <c r="D10" s="58"/>
       <c r="E10" s="56"/>
@@ -5724,19 +5745,19 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="44"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="43"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
@@ -5746,8 +5767,8 @@
       <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="43"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -5757,8 +5778,8 @@
       <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="44"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="43"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
@@ -5768,18 +5789,18 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="48"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="43"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="44"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="44"/>
       <c r="D16" s="43"/>
       <c r="E16" s="45"/>
@@ -5791,132 +5812,132 @@
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="44"/>
-      <c r="C17" s="48"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="43"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="59"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="44"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="43"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="44"/>
     </row>
     <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="44"/>
-      <c r="C19" s="48"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="43"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
-      <c r="G19" s="59"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
       <c r="J19" s="44"/>
     </row>
     <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="43"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
       <c r="J20" s="44"/>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="44"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="43"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
       <c r="J21" s="44"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="43"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
       <c r="J22" s="44"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="44"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="43"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="59"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
       <c r="J23" s="44"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="43"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="44"/>
-      <c r="C25" s="48"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="43"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
-      <c r="G25" s="59"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="44"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="43"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
       <c r="J26" s="44"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="44"/>
-      <c r="C27" s="48"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="43"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
-      <c r="G27" s="59"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
       <c r="J27" s="44"/>
     </row>
     <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="43"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
       <c r="J28" s="44"/>
@@ -5933,30 +5954,30 @@
       <c r="J29" s="44"/>
     </row>
     <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="47"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="44"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="43"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="44"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="43"/>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
@@ -5964,6 +5985,17 @@
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
       <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
+++ b/server/docs/노크 데이터베이스 정의서 초안_서버_v3.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -1016,10 +1016,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>유저상태(1:회원, 2:나쁜회원, 3:쉬는회원, 5:나간회원)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>관계 정보 테이블</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1544,6 +1540,10 @@
   </si>
   <si>
     <t>성향정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저상태(1:회원, 2:나쁜회원, 3:쉬는회원, 4:나간회원)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3721,7 +3721,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -3743,7 +3743,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" s="16">
         <v>11</v>
@@ -3765,7 +3765,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5"/>
@@ -3960,7 +3960,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5"/>
@@ -4000,7 +4000,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4084,7 +4084,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4153,10 +4153,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4175,10 +4175,10 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -4188,17 +4188,17 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="16">
         <v>11</v>
@@ -4217,10 +4217,10 @@
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -4230,7 +4230,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -4240,7 +4240,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -4262,7 +4262,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4402,10 +4402,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4425,7 +4425,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4443,7 +4443,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4536,10 +4536,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>238</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -4584,7 +4584,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>87</v>
@@ -4606,7 +4606,7 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>87</v>
@@ -4626,10 +4626,10 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4638,16 +4638,16 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>242</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>243</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4656,16 +4656,16 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4674,16 +4674,16 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4692,7 +4692,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4802,7 @@
     <row r="4" spans="1:12" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>32</v>
@@ -4823,7 +4823,7 @@
         <v>143</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>156</v>
@@ -4840,10 +4840,10 @@
     <row r="6" spans="1:12" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>165</v>
@@ -4860,10 +4860,10 @@
     <row r="7" spans="1:12" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>165</v>
@@ -4983,10 +4983,10 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>151</v>
@@ -5017,11 +5017,11 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5226,7 +5226,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="41">
         <v>11</v>
@@ -5323,10 +5323,10 @@
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="41">
         <v>11</v>
@@ -5383,7 +5383,7 @@
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="33"/>
       <c r="B18" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>85</v>
@@ -5417,7 +5417,7 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
       <c r="J19" s="42" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -5448,7 +5448,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="71"/>
@@ -5483,10 +5483,10 @@
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="41">
         <v>11</v>
@@ -5497,16 +5497,16 @@
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
       <c r="J23" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="33"/>
       <c r="B24" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>185</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>186</v>
       </c>
       <c r="D24" s="41">
         <v>11</v>
@@ -5517,7 +5517,7 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5540,7 +5540,7 @@
   </sheetPr>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5577,10 +5577,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -5601,13 +5601,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>22</v>
@@ -5625,13 +5625,13 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>28</v>
@@ -5641,16 +5641,16 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="66">
         <v>11</v>
@@ -5661,16 +5661,16 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="66">
         <v>11</v>
@@ -5681,16 +5681,16 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>263</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>264</v>
       </c>
       <c r="D7" s="66">
         <v>45</v>
@@ -5701,16 +5701,16 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
@@ -5719,7 +5719,7 @@
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
@@ -6056,7 +6056,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6125,7 +6125,7 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>116</v>
@@ -6185,7 +6185,7 @@
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>123</v>
@@ -6199,13 +6199,13 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="49"/>
       <c r="B9" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>123</v>
@@ -6219,7 +6219,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -6582,7 +6582,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6603,7 +6603,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6630,10 +6630,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>208</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>209</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>28</v>
@@ -6643,7 +6643,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
@@ -6652,10 +6652,10 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
@@ -6663,16 +6663,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="74">
         <v>45</v>
@@ -6683,7 +6683,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -6763,10 +6763,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6787,7 +6787,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6817,23 +6817,23 @@
         <v>87</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>84</v>
@@ -6847,7 +6847,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6906,10 +6906,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>219</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>220</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -6930,10 +6930,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="69" t="s">
         <v>228</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>229</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>22</v>
@@ -6972,16 +6972,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -6992,16 +6992,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -7012,7 +7012,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7140,7 +7140,7 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>131</v>
@@ -7160,7 +7160,7 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -7374,10 +7374,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -7388,7 +7388,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
@@ -7397,7 +7397,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -7408,7 +7408,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -7417,7 +7417,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
